--- a/data/trans_orig/IP07A27_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A27_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83F06AE8-4CC1-46E4-B396-D06666451DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9B9E5C6-495D-4CD7-812E-8651F3CC77FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{C1985208-99BA-4D05-843A-03645C1A71C9}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{EAE34C1C-EDE8-4C99-9DCD-11EB7F8C3315}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -68,27 +68,207 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
     <t>Algunas veces</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
     <t>Casi siempre</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
     <t>Siempre</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
     <t>4,67%</t>
   </si>
   <si>
@@ -116,33 +296,6 @@
     <t>6,59%</t>
   </si>
   <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
     <t>0,85%</t>
   </si>
   <si>
@@ -170,33 +323,6 @@
     <t>2,16%</t>
   </si>
   <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
     <t>3,61%</t>
   </si>
   <si>
@@ -224,130 +350,58 @@
     <t>5,36%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
   </si>
   <si>
     <t>4,47%</t>
@@ -377,33 +431,6 @@
     <t>5,86%</t>
   </si>
   <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
     <t>0,92%</t>
   </si>
   <si>
@@ -429,33 +456,6 @@
   </si>
   <si>
     <t>2,09%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
   </si>
   <si>
     <t>2,2%</t>
@@ -868,7 +868,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8338602B-15C4-45DF-A690-5138394035DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C17BDD0A-B3F1-4899-8522-85F455AEE1B9}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1258,10 +1258,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="D10" s="7">
-        <v>16402</v>
+        <v>50924</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>17</v>
@@ -1273,10 +1273,10 @@
         <v>19</v>
       </c>
       <c r="H10" s="7">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I10" s="7">
-        <v>9651</v>
+        <v>56757</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>20</v>
@@ -1288,10 +1288,10 @@
         <v>22</v>
       </c>
       <c r="M10" s="7">
-        <v>25</v>
+        <v>135</v>
       </c>
       <c r="N10" s="7">
-        <v>26053</v>
+        <v>107682</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>23</v>
@@ -1309,10 +1309,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="D11" s="7">
-        <v>33336</v>
+        <v>11060</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>26</v>
@@ -1324,10 +1324,10 @@
         <v>28</v>
       </c>
       <c r="H11" s="7">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="I11" s="7">
-        <v>21278</v>
+        <v>2960</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>29</v>
@@ -1339,10 +1339,10 @@
         <v>31</v>
       </c>
       <c r="M11" s="7">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="N11" s="7">
-        <v>54614</v>
+        <v>14020</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>32</v>
@@ -1360,10 +1360,10 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" s="7">
-        <v>2982</v>
+        <v>2299</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>35</v>
@@ -1375,34 +1375,34 @@
         <v>37</v>
       </c>
       <c r="H12" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I12" s="7">
-        <v>4375</v>
+        <v>1325</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>38</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>4</v>
+      </c>
+      <c r="N12" s="7">
+        <v>3624</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="M12" s="7">
-        <v>11</v>
-      </c>
-      <c r="N12" s="7">
-        <v>7357</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1411,49 +1411,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>332</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>285748</v>
+        <v>888</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>2</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1410</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="7">
-        <v>332</v>
-      </c>
-      <c r="I13" s="7">
-        <v>250911</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>3</v>
+      </c>
+      <c r="N13" s="7">
+        <v>2298</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="P13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M13" s="7">
-        <v>664</v>
-      </c>
-      <c r="N13" s="7">
-        <v>536657</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1462,49 +1462,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>12671</v>
+        <v>2426</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>3</v>
+      </c>
+      <c r="N14" s="7">
+        <v>2426</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H14" s="7">
-        <v>15</v>
-      </c>
-      <c r="I14" s="7">
-        <v>11770</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M14" s="7">
-        <v>31</v>
-      </c>
-      <c r="N14" s="7">
-        <v>24441</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1513,102 +1513,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>409</v>
+        <v>80</v>
       </c>
       <c r="D15" s="7">
-        <v>351138</v>
+        <v>67597</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H15" s="7">
-        <v>393</v>
+        <v>82</v>
       </c>
       <c r="I15" s="7">
-        <v>297985</v>
+        <v>62453</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M15" s="7">
-        <v>802</v>
+        <v>162</v>
       </c>
       <c r="N15" s="7">
-        <v>649122</v>
+        <v>130050</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>332</v>
       </c>
       <c r="D16" s="7">
-        <v>2299</v>
+        <v>285748</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="7">
+        <v>332</v>
+      </c>
+      <c r="I16" s="7">
+        <v>250911</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>664</v>
+      </c>
+      <c r="N16" s="7">
+        <v>536657</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H16" s="7">
-        <v>2</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1325</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="M16" s="7">
-        <v>4</v>
-      </c>
-      <c r="N16" s="7">
-        <v>3624</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1617,49 +1617,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="D17" s="7">
-        <v>11060</v>
+        <v>33336</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="7">
+        <v>28</v>
+      </c>
+      <c r="I17" s="7">
+        <v>21278</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>71</v>
+      </c>
+      <c r="N17" s="7">
+        <v>54614</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="H17" s="7">
-        <v>4</v>
-      </c>
-      <c r="I17" s="7">
-        <v>2960</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="M17" s="7">
-        <v>17</v>
-      </c>
-      <c r="N17" s="7">
-        <v>14020</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1668,49 +1668,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D18" s="7">
-        <v>888</v>
+        <v>16402</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H18" s="7">
+        <v>12</v>
+      </c>
+      <c r="I18" s="7">
+        <v>9651</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="H18" s="7">
-        <v>2</v>
-      </c>
-      <c r="I18" s="7">
-        <v>1410</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>25</v>
+      </c>
+      <c r="N18" s="7">
+        <v>26053</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K18" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="M18" s="7">
-        <v>3</v>
-      </c>
-      <c r="N18" s="7">
-        <v>2298</v>
-      </c>
-      <c r="O18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1719,49 +1719,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>50924</v>
+        <v>2982</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>6</v>
+      </c>
+      <c r="I19" s="7">
+        <v>4375</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H19" s="7">
-        <v>74</v>
-      </c>
-      <c r="I19" s="7">
-        <v>56757</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>11</v>
+      </c>
+      <c r="N19" s="7">
+        <v>7357</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="M19" s="7">
-        <v>135</v>
-      </c>
-      <c r="N19" s="7">
-        <v>107682</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1770,28 +1770,28 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D20" s="7">
-        <v>2426</v>
+        <v>12671</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>15</v>
+      </c>
+      <c r="I20" s="7">
+        <v>11770</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>99</v>
@@ -1800,10 +1800,10 @@
         <v>100</v>
       </c>
       <c r="M20" s="7">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="N20" s="7">
-        <v>2426</v>
+        <v>24441</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>101</v>
@@ -1821,49 +1821,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>80</v>
+        <v>409</v>
       </c>
       <c r="D21" s="7">
-        <v>67597</v>
+        <v>351138</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
-        <v>82</v>
+        <v>393</v>
       </c>
       <c r="I21" s="7">
-        <v>62453</v>
+        <v>297985</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
-        <v>162</v>
+        <v>802</v>
       </c>
       <c r="N21" s="7">
-        <v>130050</v>
+        <v>649122</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1874,10 +1874,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>15</v>
+        <v>393</v>
       </c>
       <c r="D22" s="7">
-        <v>18701</v>
+        <v>336671</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>104</v>
@@ -1889,10 +1889,10 @@
         <v>106</v>
       </c>
       <c r="H22" s="7">
-        <v>14</v>
+        <v>406</v>
       </c>
       <c r="I22" s="7">
-        <v>10976</v>
+        <v>307668</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>107</v>
@@ -1904,10 +1904,10 @@
         <v>109</v>
       </c>
       <c r="M22" s="7">
-        <v>29</v>
+        <v>799</v>
       </c>
       <c r="N22" s="7">
-        <v>29677</v>
+        <v>644339</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>110</v>
@@ -1976,10 +1976,10 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D24" s="7">
-        <v>3870</v>
+        <v>18701</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>122</v>
@@ -1991,10 +1991,10 @@
         <v>124</v>
       </c>
       <c r="H24" s="7">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I24" s="7">
-        <v>5786</v>
+        <v>10976</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>125</v>
@@ -2006,10 +2006,10 @@
         <v>127</v>
       </c>
       <c r="M24" s="7">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="N24" s="7">
-        <v>9655</v>
+        <v>29677</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>128</v>
@@ -2027,10 +2027,10 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>393</v>
+        <v>6</v>
       </c>
       <c r="D25" s="7">
-        <v>336671</v>
+        <v>3870</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>131</v>
@@ -2042,10 +2042,10 @@
         <v>133</v>
       </c>
       <c r="H25" s="7">
-        <v>406</v>
+        <v>8</v>
       </c>
       <c r="I25" s="7">
-        <v>307668</v>
+        <v>5786</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>134</v>
@@ -2057,10 +2057,10 @@
         <v>136</v>
       </c>
       <c r="M25" s="7">
-        <v>799</v>
+        <v>14</v>
       </c>
       <c r="N25" s="7">
-        <v>644339</v>
+        <v>9655</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>137</v>
@@ -2084,7 +2084,7 @@
         <v>15097</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>140</v>
@@ -2117,7 +2117,7 @@
         <v>145</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>146</v>
@@ -2135,13 +2135,13 @@
         <v>418734</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H27" s="7">
         <v>475</v>
@@ -2150,13 +2150,13 @@
         <v>360438</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M27" s="7">
         <v>964</v>
@@ -2165,13 +2165,13 @@
         <v>779172</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A27_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A27_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9B9E5C6-495D-4CD7-812E-8651F3CC77FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F29A8A86-61C4-40AC-BDED-141A7111FF06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{EAE34C1C-EDE8-4C99-9DCD-11EB7F8C3315}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FB55511F-BC6B-4DC4-A673-FA3AC99E86EE}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="147">
-  <si>
-    <t>Menores según frecuencia de tener problema spara dormir en 2023 (Tasa respuesta: 50,21%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="152">
+  <si>
+    <t>Menores según frecuencia de tener problemas para dormir en 2023 (Tasa respuesta: 50,21%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -65,418 +65,433 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
   </si>
   <si>
     <t>3,59%</t>
   </si>
   <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
   </si>
   <si>
     <t>3,61%</t>
   </si>
   <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
   </si>
   <si>
     <t>80,4%</t>
   </si>
   <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
   </si>
   <si>
     <t>85,36%</t>
   </si>
   <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
   </si>
   <si>
     <t>82,7%</t>
   </si>
   <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -487,7 +502,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -583,39 +598,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -667,7 +682,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -778,13 +793,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -793,6 +801,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -857,19 +872,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C17BDD0A-B3F1-4899-8522-85F455AEE1B9}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F511F4E0-5DCB-4517-950C-3A709E98F32F}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1258,49 +1293,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>61</v>
-      </c>
-      <c r="D10" s="7">
-        <v>50924</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>74</v>
-      </c>
-      <c r="I10" s="7">
-        <v>56757</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>135</v>
-      </c>
-      <c r="N10" s="7">
-        <v>107682</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1309,49 +1338,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>13</v>
-      </c>
-      <c r="D11" s="7">
-        <v>11060</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>4</v>
-      </c>
-      <c r="I11" s="7">
-        <v>2960</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>17</v>
-      </c>
-      <c r="N11" s="7">
-        <v>14020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1360,49 +1383,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>2</v>
-      </c>
-      <c r="D12" s="7">
-        <v>2299</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>2</v>
-      </c>
-      <c r="I12" s="7">
-        <v>1325</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>4</v>
-      </c>
-      <c r="N12" s="7">
-        <v>3624</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1411,49 +1428,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
-      </c>
-      <c r="D13" s="7">
-        <v>888</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1410</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>3</v>
-      </c>
-      <c r="N13" s="7">
-        <v>2298</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1462,49 +1473,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
-      </c>
-      <c r="D14" s="7">
-        <v>2426</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
       </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>3</v>
-      </c>
-      <c r="N14" s="7">
-        <v>2426</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1513,102 +1518,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>80</v>
-      </c>
-      <c r="D15" s="7">
-        <v>67597</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>82</v>
-      </c>
-      <c r="I15" s="7">
-        <v>62453</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>162</v>
-      </c>
-      <c r="N15" s="7">
-        <v>130050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>332</v>
+        <v>8</v>
       </c>
       <c r="D16" s="7">
-        <v>285748</v>
+        <v>6247</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>332</v>
+        <v>4</v>
       </c>
       <c r="I16" s="7">
-        <v>250911</v>
+        <v>3295</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="M16" s="7">
-        <v>664</v>
+        <v>12</v>
       </c>
       <c r="N16" s="7">
-        <v>536657</v>
+        <v>9543</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1617,49 +1616,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>33336</v>
+        <v>2152</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="I17" s="7">
-        <v>21278</v>
+        <v>2403</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="N17" s="7">
-        <v>54614</v>
+        <v>4555</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1668,49 +1667,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D18" s="7">
-        <v>16402</v>
+        <v>4053</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="H18" s="7">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I18" s="7">
-        <v>9651</v>
+        <v>5065</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="M18" s="7">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="N18" s="7">
-        <v>26053</v>
+        <v>9118</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1719,49 +1718,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="D19" s="7">
-        <v>2982</v>
+        <v>23681</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="H19" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I19" s="7">
-        <v>4375</v>
+        <v>6788</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="M19" s="7">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="N19" s="7">
-        <v>7357</v>
+        <v>30469</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1770,49 +1769,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>16</v>
+        <v>151</v>
       </c>
       <c r="D20" s="7">
-        <v>12671</v>
+        <v>127506</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="H20" s="7">
-        <v>15</v>
+        <v>152</v>
       </c>
       <c r="I20" s="7">
-        <v>11770</v>
+        <v>115422</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="M20" s="7">
-        <v>31</v>
+        <v>303</v>
       </c>
       <c r="N20" s="7">
-        <v>24441</v>
+        <v>242928</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1821,102 +1820,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>409</v>
+        <v>195</v>
       </c>
       <c r="D21" s="7">
-        <v>351138</v>
+        <v>163639</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H21" s="7">
-        <v>393</v>
+        <v>176</v>
       </c>
       <c r="I21" s="7">
-        <v>297985</v>
+        <v>132973</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="M21" s="7">
-        <v>802</v>
+        <v>371</v>
       </c>
       <c r="N21" s="7">
-        <v>649122</v>
+        <v>296612</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>393</v>
+        <v>11</v>
       </c>
       <c r="D22" s="7">
-        <v>336671</v>
+        <v>8849</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="H22" s="7">
-        <v>406</v>
+        <v>11</v>
       </c>
       <c r="I22" s="7">
-        <v>307668</v>
+        <v>8475</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="M22" s="7">
-        <v>799</v>
+        <v>22</v>
       </c>
       <c r="N22" s="7">
-        <v>644339</v>
+        <v>17324</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1925,49 +1924,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="D23" s="7">
-        <v>44396</v>
+        <v>1717</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="H23" s="7">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="I23" s="7">
-        <v>24239</v>
+        <v>3382</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="M23" s="7">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="N23" s="7">
-        <v>68635</v>
+        <v>5100</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1976,49 +1975,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D24" s="7">
-        <v>18701</v>
+        <v>14648</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="H24" s="7">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I24" s="7">
-        <v>10976</v>
+        <v>5911</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="M24" s="7">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N24" s="7">
-        <v>29677</v>
+        <v>20559</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2027,49 +2026,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D25" s="7">
-        <v>3870</v>
+        <v>20715</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="H25" s="7">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="I25" s="7">
-        <v>5786</v>
+        <v>17451</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="M25" s="7">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="N25" s="7">
-        <v>9655</v>
+        <v>38166</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>139</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2078,49 +2077,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>19</v>
+        <v>242</v>
       </c>
       <c r="D26" s="7">
-        <v>15097</v>
+        <v>209166</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="H26" s="7">
-        <v>15</v>
+        <v>254</v>
       </c>
       <c r="I26" s="7">
-        <v>11770</v>
+        <v>192246</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="M26" s="7">
-        <v>34</v>
+        <v>496</v>
       </c>
       <c r="N26" s="7">
-        <v>26866</v>
+        <v>401412</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2129,55 +2128,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>294</v>
+      </c>
+      <c r="D27" s="7">
+        <v>255096</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="7">
+        <v>299</v>
+      </c>
+      <c r="I27" s="7">
+        <v>227465</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M27" s="7">
+        <v>593</v>
+      </c>
+      <c r="N27" s="7">
+        <v>482561</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>19</v>
+      </c>
+      <c r="D28" s="7">
+        <v>15097</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H28" s="7">
+        <v>15</v>
+      </c>
+      <c r="I28" s="7">
+        <v>11770</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M28" s="7">
+        <v>34</v>
+      </c>
+      <c r="N28" s="7">
+        <v>26866</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>6</v>
+      </c>
+      <c r="D29" s="7">
+        <v>3870</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H29" s="7">
+        <v>8</v>
+      </c>
+      <c r="I29" s="7">
+        <v>5786</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M29" s="7">
+        <v>14</v>
+      </c>
+      <c r="N29" s="7">
+        <v>9655</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>15</v>
+      </c>
+      <c r="D30" s="7">
+        <v>18701</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H30" s="7">
+        <v>14</v>
+      </c>
+      <c r="I30" s="7">
+        <v>10976</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M30" s="7">
+        <v>29</v>
+      </c>
+      <c r="N30" s="7">
+        <v>29677</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>56</v>
+      </c>
+      <c r="D31" s="7">
+        <v>44396</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H31" s="7">
+        <v>32</v>
+      </c>
+      <c r="I31" s="7">
+        <v>24239</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="M31" s="7">
+        <v>88</v>
+      </c>
+      <c r="N31" s="7">
+        <v>68635</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>393</v>
+      </c>
+      <c r="D32" s="7">
+        <v>336671</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H32" s="7">
+        <v>406</v>
+      </c>
+      <c r="I32" s="7">
+        <v>307668</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="M32" s="7">
+        <v>799</v>
+      </c>
+      <c r="N32" s="7">
+        <v>644339</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>489</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>418734</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H33" s="7">
         <v>475</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>360438</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M33" s="7">
         <v>964</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>779172</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>57</v>
+      <c r="O33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP07A27_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A27_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F29A8A86-61C4-40AC-BDED-141A7111FF06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F523C83D-F7C6-4B05-8671-BF120B46DDA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FB55511F-BC6B-4DC4-A673-FA3AC99E86EE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{99B93BE0-29F4-4404-8CA2-BA4385E47579}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="149">
   <si>
     <t>Menores según frecuencia de tener problemas para dormir en 2023 (Tasa respuesta: 50,21%)</t>
   </si>
@@ -95,28 +95,28 @@
     <t>3,82%</t>
   </si>
   <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
   </si>
   <si>
     <t>2,48%</t>
   </si>
   <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
   </si>
   <si>
     <t>3,22%</t>
   </si>
   <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
   </si>
   <si>
     <t>1,32%</t>
@@ -125,7 +125,7 @@
     <t>0,33%</t>
   </si>
   <si>
-    <t>3,96%</t>
+    <t>3,49%</t>
   </si>
   <si>
     <t>1,81%</t>
@@ -134,91 +134,94 @@
     <t>0,46%</t>
   </si>
   <si>
-    <t>5,3%</t>
+    <t>5,13%</t>
   </si>
   <si>
     <t>1,54%</t>
   </si>
   <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
   </si>
   <si>
     <t>3,81%</t>
   </si>
   <si>
-    <t>7,69%</t>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
   </si>
   <si>
     <t>3,07%</t>
   </si>
   <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
   </si>
   <si>
     <t>14,47%</t>
   </si>
   <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
   </si>
   <si>
     <t>5,1%</t>
   </si>
   <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
   </si>
   <si>
     <t>10,27%</t>
   </si>
   <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
   </si>
   <si>
     <t>77,92%</t>
   </si>
   <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
   </si>
   <si>
     <t>86,8%</t>
   </si>
   <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
   </si>
   <si>
     <t>81,9%</t>
   </si>
   <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
   </si>
   <si>
     <t>100%</t>
@@ -230,265 +233,253 @@
     <t>3,47%</t>
   </si>
   <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
+    <t>1,57%</t>
   </si>
   <si>
     <t>3,73%</t>
   </si>
   <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
   </si>
   <si>
     <t>3,59%</t>
   </si>
   <si>
-    <t>2,19%</t>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
   </si>
   <si>
     <t>5,45%</t>
   </si>
   <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
   </si>
   <si>
     <t>2,15%</t>
   </si>
   <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
+    <t>8,49%</t>
   </si>
   <si>
     <t>3,05%</t>
   </si>
   <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
   </si>
   <si>
     <t>10,6%</t>
   </si>
   <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
+    <t>13,4%</t>
   </si>
   <si>
     <t>6,72%</t>
   </si>
   <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
   </si>
   <si>
     <t>8,81%</t>
   </si>
   <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
   </si>
   <si>
     <t>80,4%</t>
   </si>
   <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
   </si>
   <si>
     <t>85,36%</t>
   </si>
   <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
   </si>
   <si>
     <t>82,7%</t>
   </si>
   <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -903,7 +894,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F511F4E0-5DCB-4517-950C-3A709E98F32F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{551E07E0-2F04-44A6-A342-62C75D6D244D}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1691,10 +1682,10 @@
         <v>38</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M18" s="7">
         <v>11</v>
@@ -1703,13 +1694,13 @@
         <v>9118</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1724,13 +1715,13 @@
         <v>23681</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -1739,13 +1730,13 @@
         <v>6788</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M19" s="7">
         <v>39</v>
@@ -1754,13 +1745,13 @@
         <v>30469</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1775,13 +1766,13 @@
         <v>127506</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H20" s="7">
         <v>152</v>
@@ -1790,13 +1781,13 @@
         <v>115422</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M20" s="7">
         <v>303</v>
@@ -1805,13 +1796,13 @@
         <v>242928</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1826,13 +1817,13 @@
         <v>163639</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H21" s="7">
         <v>176</v>
@@ -1841,13 +1832,13 @@
         <v>132973</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M21" s="7">
         <v>371</v>
@@ -1856,18 +1847,18 @@
         <v>296612</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -1879,13 +1870,13 @@
         <v>8849</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -1915,7 +1906,7 @@
         <v>70</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1930,13 +1921,13 @@
         <v>1717</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -1945,13 +1936,13 @@
         <v>3382</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M23" s="7">
         <v>8</v>
@@ -1960,13 +1951,13 @@
         <v>5100</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1981,13 +1972,13 @@
         <v>14648</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H24" s="7">
         <v>7</v>
@@ -1996,13 +1987,13 @@
         <v>5911</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M24" s="7">
         <v>18</v>
@@ -2011,13 +2002,13 @@
         <v>20559</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2032,13 +2023,13 @@
         <v>20715</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H25" s="7">
         <v>22</v>
@@ -2047,13 +2038,13 @@
         <v>17451</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M25" s="7">
         <v>49</v>
@@ -2062,13 +2053,13 @@
         <v>38166</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2083,13 +2074,13 @@
         <v>209166</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H26" s="7">
         <v>254</v>
@@ -2098,13 +2089,13 @@
         <v>192246</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M26" s="7">
         <v>496</v>
@@ -2113,13 +2104,13 @@
         <v>401412</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2134,13 +2125,13 @@
         <v>255096</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H27" s="7">
         <v>299</v>
@@ -2149,13 +2140,13 @@
         <v>227465</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M27" s="7">
         <v>593</v>
@@ -2164,13 +2155,13 @@
         <v>482561</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2187,13 +2178,13 @@
         <v>15097</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H28" s="7">
         <v>15</v>
@@ -2202,13 +2193,13 @@
         <v>11770</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M28" s="7">
         <v>34</v>
@@ -2217,13 +2208,13 @@
         <v>26866</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2238,13 +2229,13 @@
         <v>3870</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H29" s="7">
         <v>8</v>
@@ -2253,13 +2244,13 @@
         <v>5786</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M29" s="7">
         <v>14</v>
@@ -2268,13 +2259,13 @@
         <v>9655</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2289,13 +2280,13 @@
         <v>18701</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H30" s="7">
         <v>14</v>
@@ -2304,13 +2295,13 @@
         <v>10976</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K30" s="7" t="s">
-        <v>129</v>
-      </c>
       <c r="L30" s="7" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="M30" s="7">
         <v>29</v>
@@ -2322,10 +2313,10 @@
         <v>38</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2340,13 +2331,13 @@
         <v>44396</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H31" s="7">
         <v>32</v>
@@ -2355,13 +2346,13 @@
         <v>24239</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M31" s="7">
         <v>88</v>
@@ -2370,13 +2361,13 @@
         <v>68635</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2391,13 +2382,13 @@
         <v>336671</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H32" s="7">
         <v>406</v>
@@ -2406,13 +2397,13 @@
         <v>307668</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M32" s="7">
         <v>799</v>
@@ -2421,13 +2412,13 @@
         <v>644339</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2442,13 +2433,13 @@
         <v>418734</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H33" s="7">
         <v>475</v>
@@ -2457,13 +2448,13 @@
         <v>360438</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M33" s="7">
         <v>964</v>
@@ -2472,18 +2463,18 @@
         <v>779172</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A27_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A27_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F523C83D-F7C6-4B05-8671-BF120B46DDA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{54E344D0-B3C3-4DE6-AD09-F173C2C3DEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{99B93BE0-29F4-4404-8CA2-BA4385E47579}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{2904F487-6711-482F-89E7-1CFB530FA454}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="121">
   <si>
     <t>Menores según frecuencia de tener problemas para dormir en 2023 (Tasa respuesta: 50,21%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -80,9 +80,6 @@
     <t>Algunas veces</t>
   </si>
   <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
     <t>Nunca</t>
   </si>
   <si>
@@ -92,394 +89,313 @@
     <t>8-11</t>
   </si>
   <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
   </si>
   <si>
     <t>0,63%</t>
   </si>
   <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
   </si>
   <si>
     <t>0,33%</t>
   </si>
   <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -894,8 +810,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{551E07E0-2F04-44A6-A342-62C75D6D244D}">
-  <dimension ref="A1:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{958AF252-A4EC-4AC6-8B8C-785C0A080C28}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1189,7 +1105,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -1232,9 +1148,11 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B9" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -1277,11 +1195,9 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -1326,7 +1242,7 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -1371,7 +1287,7 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" s="7">
         <v>0</v>
@@ -1416,7 +1332,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -1459,1035 +1375,792 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7"/>
+        <v>138</v>
+      </c>
+      <c r="D14" s="7">
+        <v>96310</v>
+      </c>
       <c r="E14" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7"/>
+        <v>156</v>
+      </c>
+      <c r="I14" s="7">
+        <v>134998</v>
+      </c>
       <c r="J14" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7"/>
+        <v>294</v>
+      </c>
+      <c r="N14" s="7">
+        <v>231308</v>
+      </c>
       <c r="O14" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C15" s="7">
-        <v>0</v>
-      </c>
-      <c r="D15" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="D15" s="7">
+        <v>29367</v>
+      </c>
       <c r="E15" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="I15" s="7">
+        <v>31618</v>
+      </c>
       <c r="J15" s="7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="M15" s="7">
-        <v>0</v>
-      </c>
-      <c r="N15" s="7"/>
+        <v>66</v>
+      </c>
+      <c r="N15" s="7">
+        <v>60985</v>
+      </c>
       <c r="O15" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C16" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>6247</v>
+        <v>3139</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="H16" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>3295</v>
+        <v>2289</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="M16" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N16" s="7">
-        <v>9543</v>
+        <v>5428</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C17" s="7">
         <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>2152</v>
+        <v>2471</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
       </c>
       <c r="I17" s="7">
-        <v>2403</v>
+        <v>2422</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
       </c>
       <c r="N17" s="7">
-        <v>4555</v>
+        <v>4892</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>4</v>
+        <v>177</v>
       </c>
       <c r="D18" s="7">
-        <v>4053</v>
+        <v>131287</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="H18" s="7">
-        <v>7</v>
+        <v>195</v>
       </c>
       <c r="I18" s="7">
-        <v>5065</v>
+        <v>171327</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="M18" s="7">
-        <v>11</v>
+        <v>372</v>
       </c>
       <c r="N18" s="7">
-        <v>9118</v>
+        <v>302614</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="B19" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>29</v>
+        <v>250</v>
       </c>
       <c r="D19" s="7">
-        <v>23681</v>
+        <v>177567</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="H19" s="7">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="I19" s="7">
-        <v>6788</v>
+        <v>209391</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="M19" s="7">
-        <v>39</v>
+        <v>484</v>
       </c>
       <c r="N19" s="7">
-        <v>30469</v>
+        <v>386958</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C20" s="7">
-        <v>151</v>
+        <v>47</v>
       </c>
       <c r="D20" s="7">
-        <v>127506</v>
+        <v>59663</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="7">
         <v>54</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H20" s="7">
-        <v>152</v>
-      </c>
       <c r="I20" s="7">
-        <v>115422</v>
+        <v>53042</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="M20" s="7">
-        <v>303</v>
+        <v>101</v>
       </c>
       <c r="N20" s="7">
-        <v>242928</v>
+        <v>112706</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="7">
+        <v>1</v>
+      </c>
+      <c r="D21" s="7">
+        <v>721</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" s="7">
+        <v>2</v>
+      </c>
+      <c r="I21" s="7">
+        <v>1166</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M21" s="7">
         <v>3</v>
       </c>
-      <c r="C21" s="7">
-        <v>195</v>
-      </c>
-      <c r="D21" s="7">
-        <v>163639</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H21" s="7">
-        <v>176</v>
-      </c>
-      <c r="I21" s="7">
-        <v>132973</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="M21" s="7">
-        <v>371</v>
-      </c>
       <c r="N21" s="7">
-        <v>296612</v>
+        <v>1887</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C22" s="7">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>8849</v>
+        <v>729</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="H22" s="7">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I22" s="7">
-        <v>8475</v>
+        <v>2812</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="M22" s="7">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="N22" s="7">
-        <v>17324</v>
+        <v>3541</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>299</v>
+      </c>
+      <c r="D23" s="7">
+        <v>238680</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" s="7">
+        <v>293</v>
+      </c>
+      <c r="I23" s="7">
+        <v>266412</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M23" s="7">
+        <v>592</v>
+      </c>
+      <c r="N23" s="7">
+        <v>505092</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="7">
-        <v>1717</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H23" s="7">
-        <v>5</v>
-      </c>
-      <c r="I23" s="7">
-        <v>3382</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="M23" s="7">
-        <v>8</v>
-      </c>
-      <c r="N23" s="7">
-        <v>5100</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>11</v>
+        <v>388</v>
       </c>
       <c r="D24" s="7">
-        <v>14648</v>
+        <v>273877</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H24" s="7">
-        <v>7</v>
+        <v>390</v>
       </c>
       <c r="I24" s="7">
-        <v>5911</v>
+        <v>344389</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="M24" s="7">
-        <v>18</v>
+        <v>778</v>
       </c>
       <c r="N24" s="7">
-        <v>20559</v>
+        <v>618266</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C25" s="7">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D25" s="7">
-        <v>20715</v>
+        <v>89030</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H25" s="7">
         <v>88</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H25" s="7">
-        <v>22</v>
-      </c>
       <c r="I25" s="7">
-        <v>17451</v>
+        <v>84661</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="M25" s="7">
-        <v>49</v>
+        <v>167</v>
       </c>
       <c r="N25" s="7">
-        <v>38166</v>
+        <v>173691</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C26" s="7">
-        <v>242</v>
+        <v>5</v>
       </c>
       <c r="D26" s="7">
-        <v>209166</v>
+        <v>3861</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="H26" s="7">
-        <v>254</v>
+        <v>4</v>
       </c>
       <c r="I26" s="7">
-        <v>192246</v>
+        <v>3455</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="M26" s="7">
-        <v>496</v>
+        <v>9</v>
       </c>
       <c r="N26" s="7">
-        <v>401412</v>
+        <v>7316</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="7">
+        <v>4</v>
+      </c>
+      <c r="D27" s="7">
+        <v>3199</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H27" s="7">
+        <v>6</v>
+      </c>
+      <c r="I27" s="7">
+        <v>5234</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="M27" s="7">
+        <v>10</v>
+      </c>
+      <c r="N27" s="7">
+        <v>8433</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="7">
-        <v>294</v>
-      </c>
-      <c r="D27" s="7">
-        <v>255096</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H27" s="7">
-        <v>299</v>
-      </c>
-      <c r="I27" s="7">
-        <v>227465</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="M27" s="7">
-        <v>593</v>
-      </c>
-      <c r="N27" s="7">
-        <v>482561</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="C28" s="7">
-        <v>19</v>
+        <v>476</v>
       </c>
       <c r="D28" s="7">
-        <v>15097</v>
+        <v>369967</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="H28" s="7">
-        <v>15</v>
+        <v>488</v>
       </c>
       <c r="I28" s="7">
-        <v>11770</v>
+        <v>437739</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="M28" s="7">
-        <v>34</v>
+        <v>964</v>
       </c>
       <c r="N28" s="7">
-        <v>26866</v>
+        <v>807706</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="7">
-        <v>6</v>
-      </c>
-      <c r="D29" s="7">
-        <v>3870</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H29" s="7">
-        <v>8</v>
-      </c>
-      <c r="I29" s="7">
-        <v>5786</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L29" s="7" t="s">
+      <c r="A29" t="s">
         <v>120</v>
-      </c>
-      <c r="M29" s="7">
-        <v>14</v>
-      </c>
-      <c r="N29" s="7">
-        <v>9655</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="7">
-        <v>15</v>
-      </c>
-      <c r="D30" s="7">
-        <v>18701</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H30" s="7">
-        <v>14</v>
-      </c>
-      <c r="I30" s="7">
-        <v>10976</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="M30" s="7">
-        <v>29</v>
-      </c>
-      <c r="N30" s="7">
-        <v>29677</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="7">
-        <v>56</v>
-      </c>
-      <c r="D31" s="7">
-        <v>44396</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="H31" s="7">
-        <v>32</v>
-      </c>
-      <c r="I31" s="7">
-        <v>24239</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="M31" s="7">
-        <v>88</v>
-      </c>
-      <c r="N31" s="7">
-        <v>68635</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="7">
-        <v>393</v>
-      </c>
-      <c r="D32" s="7">
-        <v>336671</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H32" s="7">
-        <v>406</v>
-      </c>
-      <c r="I32" s="7">
-        <v>307668</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="M32" s="7">
-        <v>799</v>
-      </c>
-      <c r="N32" s="7">
-        <v>644339</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>489</v>
-      </c>
-      <c r="D33" s="7">
-        <v>418734</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H33" s="7">
-        <v>475</v>
-      </c>
-      <c r="I33" s="7">
-        <v>360438</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="M33" s="7">
-        <v>964</v>
-      </c>
-      <c r="N33" s="7">
-        <v>779172</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>148</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A28"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
